--- a/individual_case_outputs/avey/171.xlsx
+++ b/individual_case_outputs/avey/171.xlsx
@@ -647,14 +647,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
+          <t>emphysema</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
           <t>chronic obstructive pulmonary disease</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>chronic obstructive pulmonary disease</t>
-        </is>
-      </c>
       <c r="V2" t="inlineStr">
         <is>
           <t>asthma</t>
@@ -667,7 +667,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>chronic obstructive pulmonary disease</t>
+          <t>emphysema</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -702,12 +702,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>chronic bronchitis</t>
+          <t>emphysema</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>chronic obstructive pulmonary disease</t>
+          <t>emphysema</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -718,7 +718,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>asthma</t>
+          <t>inflammatory lung disease</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>chronic bronchitis</t>
+          <t>acute bronchitis</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -785,11 +785,7 @@
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>chronic bronchitis</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
@@ -817,11 +813,7 @@
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>chronic bronchitis</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
           <t>heart issue</t>
@@ -829,7 +821,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>chronic bronchitis</t>
+          <t>acute bronchitis</t>
         </is>
       </c>
       <c r="M4" t="inlineStr"/>
@@ -981,7 +973,7 @@
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
         <is>
-          <t>chronic bronchitis</t>
+          <t>acute bronchitis</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
